--- a/Statistic/Task_2/Solution_2.xlsx
+++ b/Statistic/Task_2/Solution_2.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VikhlyantsevAA\Desktop\Portfolio_Analitics\Statistic\Task_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50073219-C58C-44F7-A3FF-8CFD5D81B675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4844664-7FFB-4D14-A002-4BBC8EFB27F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1012A1D8-3CF7-42E0-9D14-178C59A3ADE5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1012A1D8-3CF7-42E0-9D14-178C59A3ADE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Решение" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Решение!$A$1:$K$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Решение!$A$1:$J$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Решение</t>
   </si>
@@ -227,19 +224,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">n = </t>
-  </si>
-  <si>
     <t>- количество наблюдений</t>
   </si>
   <si>
-    <t xml:space="preserve">k = </t>
-  </si>
-  <si>
     <t xml:space="preserve">- количество коэффициентов уравнения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ȳ = </t>
   </si>
   <si>
     <t>- наши показатели в течение 2023г.</t>
@@ -381,9 +369,6 @@
     <t>∑</t>
   </si>
   <si>
-    <t xml:space="preserve">Fp = </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">2.2 Определим табличное значение Фишера </t>
     </r>
@@ -534,9 +519,6 @@
     <t>Табличное значение критерия Фишера при уровне значимости α = 0,05</t>
   </si>
   <si>
-    <t xml:space="preserve">Fт = </t>
-  </si>
-  <si>
     <t xml:space="preserve">Критерий фишера можно определить, используя формулу Excel: </t>
   </si>
   <si>
@@ -574,6 +556,175 @@
     </r>
   </si>
   <si>
+    <t>4. Сделаем интервальный прогноз на январь 2024г.</t>
+  </si>
+  <si>
+    <t>Интервальное значение определяется по формуле:</t>
+  </si>
+  <si>
+    <t>где:</t>
+  </si>
+  <si>
+    <r>
+      <t>ŷ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- теоретическое значение на определенный месяц</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ŷ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- ошибка аппроксимации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">α </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- t-критерий Стьюдента (коэффициент доверия)</t>
+    </r>
+  </si>
+  <si>
+    <t>4.1 Рассчитаем ошибку аппроксимации по формуле:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 Находим коэффициент доверия </t>
+  </si>
+  <si>
+    <t>Число степеней свободы:</t>
+  </si>
+  <si>
+    <t>Уровень значимости:</t>
+  </si>
+  <si>
+    <r>
+      <t>ⱱ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= n - 1</t>
+    </r>
+  </si>
+  <si>
+    <t>α = 0,05</t>
+  </si>
+  <si>
+    <r>
+      <t>ⱱ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= 11</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">По таблице t-критерий стьюдента будет равен </t>
+  </si>
+  <si>
+    <t>Это же значение мы можем найти с помощью функции Excel</t>
+  </si>
+  <si>
+    <t>=СТЬЮДЕНТ.ОБР.2Х(0,95; степень_свободы)</t>
+  </si>
+  <si>
+    <t>Нижняя граница интервального значения</t>
+  </si>
+  <si>
+    <t>Верхняя граница интервального значения</t>
+  </si>
+  <si>
     <r>
       <t>ŷ</t>
     </r>
@@ -587,7 +738,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>13</t>
+      <t xml:space="preserve">13  </t>
     </r>
     <r>
       <rPr>
@@ -598,263 +749,24 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 104,06 * 13 + 883,64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ŷ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-  </si>
-  <si>
-    <t>4. Сделаем интервальный прогноз на январь 2024г.</t>
-  </si>
-  <si>
-    <t>Интервальное значение определяется по формуле:</t>
-  </si>
-  <si>
-    <t>где:</t>
-  </si>
-  <si>
-    <r>
-      <t>ŷ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">t </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- теоретическое значение на определенный месяц</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ŷ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- ошибка аппроксимации</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">α </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- t-критерий Стьюдента (коэффициент доверия)</t>
-    </r>
-  </si>
-  <si>
-    <t>4.1 Рассчитаем ошибку аппроксимации по формуле:</t>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ŷ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 Находим коэффициент доверия </t>
-  </si>
-  <si>
-    <t>Число степеней свободы:</t>
-  </si>
-  <si>
-    <t>Уровень значимости:</t>
-  </si>
-  <si>
-    <r>
-      <t>ⱱ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= n - 1</t>
-    </r>
-  </si>
-  <si>
-    <t>α = 0,05</t>
-  </si>
-  <si>
-    <r>
-      <t>ⱱ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= 11</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">По таблице t-критерий стьюдента будет равен </t>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-  </si>
-  <si>
-    <t>Это же значение мы можем найти с помощью функции Excel</t>
-  </si>
-  <si>
-    <t>=СТЬЮДЕНТ.ОБР.2Х(0,95; степень_свободы)</t>
-  </si>
-  <si>
-    <t>Нижняя граница интервального значения</t>
-  </si>
-  <si>
-    <t>Верхняя граница интервального значения</t>
+      <t xml:space="preserve"> =    104,06 * 13 + 883,64   = </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="&quot;n = &quot;#"/>
+    <numFmt numFmtId="165" formatCode="&quot;k = &quot;#"/>
+    <numFmt numFmtId="166" formatCode="&quot;ȳ = &quot;#"/>
+    <numFmt numFmtId="167" formatCode="&quot;Fp = &quot;#.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;Fт = &quot;#.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;ŷ13 = &quot;#"/>
+    <numFmt numFmtId="170" formatCode="&quot;σŷ = &quot;#.0"/>
+    <numFmt numFmtId="171" formatCode="&quot;tα = &quot;#.000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1049,7 +961,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1072,18 +984,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1109,29 +1072,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,6 +1091,76 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2134,7 +2148,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>78105</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
@@ -2228,7 +2242,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -2283,13 +2297,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>121921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>226157</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:colOff>159482</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>91441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2344,13 +2358,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>506730</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:colOff>440055</xdr:colOff>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>32566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2405,14 +2419,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>11429</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2428,7 +2442,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="621030" y="17085945"/>
-          <a:ext cx="5457824" cy="1388745"/>
+          <a:ext cx="5524499" cy="1468755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2496,13 +2510,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2572,237 +2586,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Задача_1"/>
-      <sheetName val="Решение_1"/>
-      <sheetName val="Задача_2"/>
-      <sheetName val="Решение_2"/>
-      <sheetName val="Задача_3"/>
-      <sheetName val="Решение_3"/>
-      <sheetName val="Задача_4"/>
-      <sheetName val="Решение_4"/>
-      <sheetName val="Задача_5"/>
-      <sheetName val="Решение_5"/>
-      <sheetName val="Задача_6"/>
-      <sheetName val="Решение_6"/>
-      <sheetName val="Задача_7"/>
-      <sheetName val="Решение_7"/>
-      <sheetName val="Задача_8"/>
-      <sheetName val="Решение_8"/>
-      <sheetName val="Задача_9"/>
-      <sheetName val="Решение_9"/>
-      <sheetName val="Задача_10"/>
-      <sheetName val="Решение_10"/>
-      <sheetName val="Задача_11"/>
-      <sheetName val="Решение_11"/>
-      <sheetName val="Задача_12"/>
-      <sheetName val="Решение_12"/>
-      <sheetName val="Задача_13"/>
-      <sheetName val="Решение_13"/>
-      <sheetName val="Задача_14"/>
-      <sheetName val="Решение_14"/>
-      <sheetName val="Задача_15"/>
-      <sheetName val="Решение_15"/>
-      <sheetName val="Задача_16"/>
-      <sheetName val="Решение_16"/>
-      <sheetName val="Задание_17"/>
-      <sheetName val="Решение_17"/>
-      <sheetName val="Задание_18"/>
-      <sheetName val="Решение_18"/>
-      <sheetName val="Задание_19"/>
-      <sheetName val="Решение_19"/>
-      <sheetName val="Задание_20"/>
-      <sheetName val="Решение_20"/>
-      <sheetName val="Задание_21"/>
-      <sheetName val="Решение_21"/>
-      <sheetName val="Задание_22"/>
-      <sheetName val="Решение_22"/>
-      <sheetName val="Задание_23"/>
-      <sheetName val="Решение_23"/>
-      <sheetName val="Задание_24"/>
-      <sheetName val="Решение_24"/>
-      <sheetName val="Задание_25"/>
-      <sheetName val="Решение_25"/>
-      <sheetName val="Задание_26"/>
-      <sheetName val="Решение_26"/>
-      <sheetName val="Задание_27"/>
-      <sheetName val="Задание_28"/>
-      <sheetName val="Решение_28"/>
-      <sheetName val="Задание_29"/>
-      <sheetName val="Решение_29"/>
-      <sheetName val="Задание_30"/>
-      <sheetName val="Решение_30"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47">
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>Кол-во шт.</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Январь</v>
-          </cell>
-          <cell r="C6">
-            <v>960</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Февраль</v>
-          </cell>
-          <cell r="C7">
-            <v>1140</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Март</v>
-          </cell>
-          <cell r="C8">
-            <v>1260</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Апрель</v>
-          </cell>
-          <cell r="C9">
-            <v>1140</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Май</v>
-          </cell>
-          <cell r="C10">
-            <v>1800</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Июнь</v>
-          </cell>
-          <cell r="C11">
-            <v>1980</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Июль</v>
-          </cell>
-          <cell r="C12">
-            <v>1260</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Август</v>
-          </cell>
-          <cell r="C13">
-            <v>1340</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>Сентябрь</v>
-          </cell>
-          <cell r="C14">
-            <v>1240</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>Октябрь</v>
-          </cell>
-          <cell r="C15">
-            <v>1800</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Ноябрь</v>
-          </cell>
-          <cell r="C16">
-            <v>2200</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>Декабрь</v>
-          </cell>
-          <cell r="C17">
-            <v>2600</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3102,16 +2885,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47731C9-60C1-4509-8FAE-E4C7D71E3D85}">
-  <dimension ref="B1:AE138"/>
+  <dimension ref="B1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
     <col min="4" max="10" width="8.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -3130,24 +2913,24 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3158,7 +2941,7 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>960</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3169,10 +2952,10 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1140</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3180,7 +2963,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1260</v>
       </c>
     </row>
@@ -3188,7 +2971,7 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1140</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3199,13 +2982,13 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1800</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>883.64</v>
       </c>
     </row>
@@ -3213,13 +2996,13 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1980</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>104.06</v>
       </c>
     </row>
@@ -3227,7 +3010,7 @@
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1260</v>
       </c>
     </row>
@@ -3235,7 +3018,7 @@
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>1340</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3246,7 +3029,7 @@
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1240</v>
       </c>
     </row>
@@ -3254,7 +3037,7 @@
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>1800</v>
       </c>
     </row>
@@ -3262,7 +3045,7 @@
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>2200</v>
       </c>
     </row>
@@ -3270,22 +3053,22 @@
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2600</v>
       </c>
     </row>
     <row r="34" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -3298,2097 +3081,1784 @@
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C44" s="9"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="23">
+        <v>12</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="12">
-        <v>12</v>
-      </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B46" s="24">
+        <v>2</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="14">
-        <v>2</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-    </row>
-    <row r="47" spans="2:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-    </row>
-    <row r="48" spans="2:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-    </row>
-    <row r="49" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-    </row>
-    <row r="50" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-    </row>
-    <row r="51" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-    </row>
-    <row r="52" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
-    </row>
-    <row r="53" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-    </row>
-    <row r="54" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-    </row>
-    <row r="55" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-    </row>
-    <row r="56" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-    </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="12">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B47" s="26">
         <f>AVERAGE(C6:C17)</f>
         <v>1560</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="C47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+    </row>
+    <row r="49" spans="2:31" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B49" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+    </row>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-    </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+    </row>
+    <row r="53" spans="2:31" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-    </row>
-    <row r="59" spans="2:31" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B59" s="12" t="s">
+      <c r="C53" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-    </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-    </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
+      <c r="D53" s="39"/>
+      <c r="E53" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
-    </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-      <c r="AB62" s="10"/>
-      <c r="AC62" s="10"/>
-    </row>
-    <row r="63" spans="2:31" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="6" t="s">
+      <c r="F53" s="40"/>
+      <c r="G53" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-      <c r="AB63" s="10"/>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="10"/>
-      <c r="AE63" s="10"/>
-    </row>
-    <row r="64" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="17">
+      <c r="H53" s="40"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="54" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="28">
         <v>1</v>
       </c>
-      <c r="C64" s="18">
-        <f t="shared" ref="C64:C75" si="0">$F$11*$B64+$F$10</f>
+      <c r="C54" s="37">
+        <f t="shared" ref="C54:C65" si="0">$F$11*$B54+$F$10</f>
         <v>987.7</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18">
-        <f t="shared" ref="E64:E75" si="1">($C64-$C6)^2</f>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37">
+        <f t="shared" ref="E54:E65" si="1">($C54-$C6)^2</f>
         <v>767.29000000000246</v>
       </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18">
-        <f t="shared" ref="G64:G75" si="2">($C64-$C$57)^2</f>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37">
+        <f>($C54-$B$47)^2</f>
         <v>327527.28999999992</v>
       </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
-      <c r="AC64" s="10"/>
-      <c r="AD64" s="10"/>
-      <c r="AE64" s="10"/>
-    </row>
-    <row r="65" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="19">
+      <c r="H54" s="37"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+    </row>
+    <row r="55" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="15">
         <v>2</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C55" s="41">
         <f t="shared" si="0"/>
         <v>1091.76</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20">
+      <c r="D55" s="41"/>
+      <c r="E55" s="41">
         <f t="shared" si="1"/>
         <v>2327.097600000001</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20">
-        <f t="shared" si="2"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41">
+        <f t="shared" ref="G55:G65" si="2">($C55-$B$47)^2</f>
         <v>219248.69760000001</v>
       </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="10"/>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
-      <c r="AC65" s="10"/>
-      <c r="AD65" s="10"/>
-      <c r="AE65" s="10"/>
-    </row>
-    <row r="66" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="17">
+      <c r="H55" s="41"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+    </row>
+    <row r="56" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="14">
         <v>3</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C56" s="42">
         <f t="shared" si="0"/>
         <v>1195.82</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18">
+      <c r="D56" s="42"/>
+      <c r="E56" s="42">
         <f t="shared" si="1"/>
         <v>4119.0724000000082</v>
       </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18">
+      <c r="F56" s="42"/>
+      <c r="G56" s="42">
         <f t="shared" si="2"/>
         <v>132627.07240000003</v>
       </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
-      <c r="Z66" s="10"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="10"/>
-      <c r="AC66" s="10"/>
-      <c r="AD66" s="10"/>
-      <c r="AE66" s="10"/>
-    </row>
-    <row r="67" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="19">
+      <c r="H56" s="42"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+    </row>
+    <row r="57" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="15">
         <v>4</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C57" s="41">
         <f t="shared" si="0"/>
         <v>1299.8800000000001</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20">
+      <c r="D57" s="41"/>
+      <c r="E57" s="41">
         <f t="shared" si="1"/>
         <v>25561.614400000035</v>
       </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20">
+      <c r="F57" s="41"/>
+      <c r="G57" s="41">
         <f t="shared" si="2"/>
         <v>67662.414399999936</v>
       </c>
-      <c r="H67" s="20"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="10"/>
-      <c r="AE67" s="10"/>
-    </row>
-    <row r="68" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="17">
+      <c r="H57" s="41"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+    </row>
+    <row r="58" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="14">
         <v>5</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C58" s="42">
         <f t="shared" si="0"/>
         <v>1403.94</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18">
+      <c r="D58" s="42"/>
+      <c r="E58" s="42">
         <f t="shared" si="1"/>
         <v>156863.52359999996</v>
       </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18">
+      <c r="F58" s="42"/>
+      <c r="G58" s="43">
         <f t="shared" si="2"/>
         <v>24354.723599999983</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-    </row>
-    <row r="69" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="19">
+      <c r="H58" s="44"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+    </row>
+    <row r="59" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="15">
         <v>6</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C59" s="41">
         <f t="shared" si="0"/>
         <v>1508</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20">
+      <c r="D59" s="41"/>
+      <c r="E59" s="41">
         <f t="shared" si="1"/>
         <v>222784</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20">
+      <c r="F59" s="41"/>
+      <c r="G59" s="41">
         <f t="shared" si="2"/>
         <v>2704</v>
       </c>
-      <c r="H69" s="20"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-    </row>
-    <row r="70" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="17">
+      <c r="H59" s="41"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+    </row>
+    <row r="60" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="14">
         <v>7</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C60" s="42">
         <f t="shared" si="0"/>
         <v>1612.06</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18">
+      <c r="D60" s="42"/>
+      <c r="E60" s="42">
         <f t="shared" si="1"/>
         <v>123946.24359999996</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18">
+      <c r="F60" s="42"/>
+      <c r="G60" s="42">
         <f t="shared" si="2"/>
         <v>2710.2435999999943</v>
       </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="10"/>
-    </row>
-    <row r="71" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19">
+      <c r="H60" s="42"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+    </row>
+    <row r="61" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="15">
         <v>8</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C61" s="41">
         <f t="shared" si="0"/>
         <v>1716.12</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20">
+      <c r="D61" s="41"/>
+      <c r="E61" s="41">
         <f t="shared" si="1"/>
         <v>141466.25439999992</v>
       </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20">
+      <c r="F61" s="41"/>
+      <c r="G61" s="41">
         <f t="shared" si="2"/>
         <v>24373.454399999966</v>
       </c>
-      <c r="H71" s="20"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="10"/>
-    </row>
-    <row r="72" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="17">
+      <c r="H61" s="41"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+    </row>
+    <row r="62" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="14">
         <v>9</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C62" s="42">
         <f t="shared" si="0"/>
         <v>1820.1799999999998</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18">
+      <c r="D62" s="42"/>
+      <c r="E62" s="42">
         <f t="shared" si="1"/>
         <v>336608.83239999978</v>
       </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18">
+      <c r="F62" s="42"/>
+      <c r="G62" s="42">
         <f t="shared" si="2"/>
         <v>67693.632399999915</v>
       </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
-    </row>
-    <row r="73" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19">
+      <c r="H62" s="42"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+    </row>
+    <row r="63" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="15">
         <v>10</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C63" s="41">
         <f t="shared" si="0"/>
         <v>1924.2399999999998</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20">
+      <c r="D63" s="41"/>
+      <c r="E63" s="41">
         <f t="shared" si="1"/>
         <v>15435.577599999946</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20">
+      <c r="F63" s="41"/>
+      <c r="G63" s="41">
         <f t="shared" si="2"/>
         <v>132670.77759999983</v>
       </c>
-      <c r="H73" s="20"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
-    </row>
-    <row r="74" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="17">
+      <c r="H63" s="41"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+    </row>
+    <row r="64" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="14">
         <v>11</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C64" s="42">
         <f t="shared" si="0"/>
         <v>2028.3000000000002</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18">
+      <c r="D64" s="42"/>
+      <c r="E64" s="42">
         <f t="shared" si="1"/>
         <v>29480.889999999938</v>
       </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18">
+      <c r="F64" s="42"/>
+      <c r="G64" s="42">
         <f t="shared" si="2"/>
         <v>219304.89000000016</v>
       </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
-    </row>
-    <row r="75" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="19">
+      <c r="H64" s="42"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+    </row>
+    <row r="65" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="32">
         <v>12</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C65" s="45">
         <f t="shared" si="0"/>
         <v>2132.36</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20">
+      <c r="D65" s="45"/>
+      <c r="E65" s="45">
         <f t="shared" si="1"/>
         <v>218687.16959999988</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20">
+      <c r="F65" s="45"/>
+      <c r="G65" s="45">
         <f t="shared" si="2"/>
         <v>327595.96960000013</v>
       </c>
-      <c r="H75" s="20"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="10"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B66" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="46">
+        <f>SUM(E54:E65)</f>
+        <v>1278047.5655999994</v>
+      </c>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46">
+        <f>SUM(G54:G65)</f>
+        <v>1548473.1655999999</v>
+      </c>
+      <c r="H66" s="46"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B68" s="27">
+        <f>((B45-B46)*G66)/((B46-1)*E66)</f>
+        <v>12.115927507541905</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+    </row>
+    <row r="70" spans="2:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+    </row>
+    <row r="72" spans="2:31" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B72" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="25">
+        <f>$B$46-1</f>
+        <v>1</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+    </row>
+    <row r="73" spans="2:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="23">
+        <f>$B$45-$B$46</f>
+        <v>10</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
     </row>
     <row r="76" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B76" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="23">
-        <f>SUM(E64:E75)</f>
-        <v>1278047.5655999994</v>
-      </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23">
-        <f>SUM(G64:G75)</f>
-        <v>1548473.1655999999</v>
-      </c>
-      <c r="H76" s="23"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
-      <c r="Y76" s="10"/>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="10"/>
-      <c r="AB76" s="10"/>
-      <c r="AC76" s="10"/>
-      <c r="AD76" s="10"/>
-      <c r="AE76" s="10"/>
+      <c r="B76" s="33">
+        <v>4.96</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
     </row>
     <row r="77" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="10"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B78" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="24">
-        <f>((C45-C46)*G76)/((C46-1)*E76)</f>
-        <v>12.115927507541905</v>
-      </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
-      <c r="Y78" s="10"/>
-      <c r="Z78" s="10"/>
-      <c r="AA78" s="10"/>
-      <c r="AB78" s="10"/>
-      <c r="AC78" s="10"/>
+      <c r="B78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="9"/>
     </row>
     <row r="79" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
-      <c r="Y79" s="10"/>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="10"/>
-      <c r="AB79" s="10"/>
-      <c r="AC79" s="10"/>
-    </row>
-    <row r="80" spans="2:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B80" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
-      <c r="Y80" s="10"/>
-      <c r="Z80" s="10"/>
-      <c r="AA80" s="10"/>
-      <c r="AB80" s="10"/>
-      <c r="AC80" s="10"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
+    </row>
+    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B80" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="9"/>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="10"/>
-      <c r="Y81" s="10"/>
-      <c r="Z81" s="10"/>
-      <c r="AA81" s="10"/>
-      <c r="AB81" s="10"/>
-      <c r="AC81" s="10"/>
-    </row>
-    <row r="82" spans="2:29" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B82" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="12">
-        <f>$C$46-1</f>
-        <v>1</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
-      <c r="Y82" s="10"/>
-      <c r="Z82" s="10"/>
-      <c r="AA82" s="10"/>
-      <c r="AB82" s="10"/>
-      <c r="AC82" s="10"/>
-    </row>
-    <row r="83" spans="2:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="12">
-        <f>$C$45-$C$46</f>
-        <v>10</v>
-      </c>
-      <c r="E83" s="10" t="s">
+      <c r="B81" s="33">
+        <f>_xlfn.F.INV(0.95,$D$72,$D$73)</f>
+        <v>4.9646027437307128</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9"/>
+      <c r="AC82" s="9"/>
+    </row>
+    <row r="83" spans="2:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="B83" s="20"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9"/>
+      <c r="AC83" s="9"/>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B84" s="21"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B85" s="21"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B86" s="22"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B92" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="10"/>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="10"/>
-      <c r="AB83" s="10"/>
-      <c r="AC83" s="10"/>
-    </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="10"/>
-      <c r="Z84" s="10"/>
-      <c r="AA84" s="10"/>
-      <c r="AB84" s="10"/>
-      <c r="AC84" s="10"/>
-    </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="2:29" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B94" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="10"/>
-      <c r="Z85" s="10"/>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
-      <c r="AC85" s="10"/>
-    </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B86" s="24" t="s">
+      <c r="C94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="2:29" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B95" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="E95" s="9">
+        <v>2236.42</v>
+      </c>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="34"/>
+      <c r="C97" s="11"/>
+    </row>
+    <row r="99" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B99" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="26">
-        <v>4.96</v>
-      </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="10"/>
-      <c r="Z86" s="10"/>
-      <c r="AA86" s="10"/>
-      <c r="AB86" s="10"/>
-      <c r="AC86" s="10"/>
-    </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="10"/>
-      <c r="Z87" s="10"/>
-      <c r="AA87" s="10"/>
-      <c r="AB87" s="10"/>
-      <c r="AC87" s="10"/>
-    </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
-      <c r="X88" s="10"/>
-      <c r="Y88" s="10"/>
-      <c r="Z88" s="10"/>
-      <c r="AA88" s="10"/>
-      <c r="AB88" s="10"/>
-      <c r="AC88" s="10"/>
-    </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="10"/>
-      <c r="Z89" s="10"/>
-      <c r="AA89" s="10"/>
-      <c r="AB89" s="10"/>
-      <c r="AC89" s="10"/>
-    </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B90" s="27" t="s">
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="10"/>
-      <c r="S90" s="10"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="10"/>
-      <c r="Z90" s="10"/>
-      <c r="AA90" s="10"/>
-      <c r="AB90" s="10"/>
-      <c r="AC90" s="10"/>
-    </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B91" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="26">
-        <f>_xlfn.F.INV(0.95,$D$82,$D$83)</f>
-        <v>4.9646027437307128</v>
-      </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-      <c r="X91" s="10"/>
-      <c r="Y91" s="10"/>
-      <c r="Z91" s="10"/>
-      <c r="AA91" s="10"/>
-      <c r="AB91" s="10"/>
-      <c r="AC91" s="10"/>
-    </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="10"/>
-      <c r="Y92" s="10"/>
-      <c r="Z92" s="10"/>
-      <c r="AA92" s="10"/>
-      <c r="AB92" s="10"/>
-      <c r="AC92" s="10"/>
-    </row>
-    <row r="93" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B93" s="28"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="10"/>
-      <c r="S93" s="10"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
-      <c r="X93" s="10"/>
-      <c r="Y93" s="10"/>
-      <c r="Z93" s="10"/>
-      <c r="AA93" s="10"/>
-      <c r="AB93" s="10"/>
-      <c r="AC93" s="10"/>
-    </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B94" s="29"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B95" s="29"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B96" s="30"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-    </row>
-    <row r="101" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B101" s="3" t="s">
+    </row>
+    <row r="105" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B105" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-    </row>
-    <row r="103" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B103" s="10" t="s">
+    </row>
+    <row r="106" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B106" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B104" s="10" t="s">
+    </row>
+    <row r="107" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B106" s="12" t="s">
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C106" s="12">
-        <f>104.06*13+883.64</f>
-        <v>2236.42</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B108" s="3" t="s">
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="35">
+        <f>SQRT((E66/($B$45-$B$46)))</f>
+        <v>357.49791126662535</v>
+      </c>
+      <c r="C114" s="13"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
+    <row r="119" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B119" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B115" s="2" t="s">
+      <c r="C119" s="13"/>
+      <c r="F119" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B116" s="2" t="s">
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B120" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="9" t="s">
+      <c r="C120" s="13"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B123" s="14" t="s">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="36">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="C123" s="13"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C123" s="14">
-        <f>SQRT((E76/($C$45-$C$46)))</f>
-        <v>357.49791126662535</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="9" t="s">
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G128" s="2">
+        <f>$E$95-$B$123*$B$114</f>
+        <v>1449.5670973021577</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B128" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" s="14"/>
-      <c r="F128" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G128" s="14"/>
-    </row>
-    <row r="129" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B129" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" s="14"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B132" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C132" s="14">
-        <v>2.2010000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G137" s="2">
-        <f>$C$106-$C$132*$C$123</f>
-        <v>1449.5670973021577</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G138" s="2">
-        <f>$C$106+$C$132*$C$123</f>
+      <c r="G129" s="2">
+        <f>$E$95+$B$123*$B$114</f>
         <v>3023.2729026978423</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B108:J108"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B101:J101"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B99:J99"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B92:J92"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>

--- a/Statistic/Task_2/Solution_2.xlsx
+++ b/Statistic/Task_2/Solution_2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VikhlyantsevAA\Desktop\Portfolio_Analitics\Statistic\Task_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Portfolio_Analitics\Statistic\Task_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4844664-7FFB-4D14-A002-4BBC8EFB27F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D725E9-B8BB-40E8-B826-3A924129AA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1012A1D8-3CF7-42E0-9D14-178C59A3ADE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Решение" sheetId="1" r:id="rId1"/>
+    <sheet name="Решение" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Решение!$A$1:$J$135</definedName>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Решение</t>
   </si>
@@ -50,10 +51,19 @@
     <t>Кол-во шт.</t>
   </si>
   <si>
-    <t xml:space="preserve">На графике мы сразу добавим Линию Тренда </t>
+    <t>На графике мы сразу добавим Линию Тренда и</t>
   </si>
   <si>
     <t>Январь</t>
+  </si>
+  <si>
+    <t>укажем величину достоверности аппроксимации</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Март</t>
   </si>
   <si>
     <r>
@@ -93,22 +103,22 @@
     </r>
   </si>
   <si>
-    <t>Февраль</t>
-  </si>
-  <si>
-    <t>y = 104,06x + 883,64</t>
-  </si>
-  <si>
-    <t>Март</t>
-  </si>
-  <si>
     <t>Апрель</t>
   </si>
   <si>
+    <t>y = 116,61x + 827,88</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
     <t>Коэффициенты уравнения:</t>
   </si>
   <si>
-    <t>Май</t>
+    <t>Июль</t>
   </si>
   <si>
     <r>
@@ -137,7 +147,7 @@
     </r>
   </si>
   <si>
-    <t>Июнь</t>
+    <t>Август</t>
   </si>
   <si>
     <r>
@@ -166,25 +176,48 @@
     </r>
   </si>
   <si>
-    <t>Июль</t>
-  </si>
-  <si>
-    <t>Август</t>
+    <t>Сентябрь</t>
   </si>
   <si>
     <t>В данном уравнении x - это время (номер месяца)</t>
   </si>
   <si>
-    <t>Сентябрь</t>
-  </si>
-  <si>
     <t>Октябрь</t>
   </si>
   <si>
     <t>Ноябрь</t>
   </si>
   <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> нам говорит о том, что 82% наших данных </t>
+    </r>
+  </si>
+  <si>
     <t>Декабрь</t>
+  </si>
+  <si>
+    <t>описываются уравнением данной прямой</t>
   </si>
   <si>
     <t xml:space="preserve">2. Проведём оценку адекватности (надёжности) тренда </t>
@@ -556,175 +589,6 @@
     </r>
   </si>
   <si>
-    <t>4. Сделаем интервальный прогноз на январь 2024г.</t>
-  </si>
-  <si>
-    <t>Интервальное значение определяется по формуле:</t>
-  </si>
-  <si>
-    <t>где:</t>
-  </si>
-  <si>
-    <r>
-      <t>ŷ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">t </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- теоретическое значение на определенный месяц</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ŷ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- ошибка аппроксимации</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">α </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- t-критерий Стьюдента (коэффициент доверия)</t>
-    </r>
-  </si>
-  <si>
-    <t>4.1 Рассчитаем ошибку аппроксимации по формуле:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 Находим коэффициент доверия </t>
-  </si>
-  <si>
-    <t>Число степеней свободы:</t>
-  </si>
-  <si>
-    <t>Уровень значимости:</t>
-  </si>
-  <si>
-    <r>
-      <t>ⱱ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= n - 1</t>
-    </r>
-  </si>
-  <si>
-    <t>α = 0,05</t>
-  </si>
-  <si>
-    <r>
-      <t>ⱱ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= 11</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">По таблице t-критерий стьюдента будет равен </t>
-  </si>
-  <si>
-    <t>Это же значение мы можем найти с помощью функции Excel</t>
-  </si>
-  <si>
-    <t>=СТЬЮДЕНТ.ОБР.2Х(0,95; степень_свободы)</t>
-  </si>
-  <si>
-    <t>Нижняя граница интервального значения</t>
-  </si>
-  <si>
-    <t>Верхняя граница интервального значения</t>
-  </si>
-  <si>
     <r>
       <t>ŷ</t>
     </r>
@@ -749,8 +613,183 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> =    104,06 * 13 + 883,64   = </t>
-    </r>
+      <t xml:space="preserve"> =    116,61 * 13 + 827,88  = </t>
+    </r>
+  </si>
+  <si>
+    <t>Данное значение можно вычислить с помощью функции Excel:</t>
+  </si>
+  <si>
+    <t>=ПРЕДСКАЗ.ЛИНЕЙН(x;известные_значения_y;известные_значения_x)</t>
+  </si>
+  <si>
+    <t>4. Сделаем интервальный прогноз на январь 2024г.</t>
+  </si>
+  <si>
+    <t>Интервальное значение определяется по формуле:</t>
+  </si>
+  <si>
+    <t>где:</t>
+  </si>
+  <si>
+    <r>
+      <t>ŷ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- теоретическое значение на определенный месяц</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ŷ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- ошибка аппроксимации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">α </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- t-критерий Стьюдента (коэффициент доверия)</t>
+    </r>
+  </si>
+  <si>
+    <t>4.1 Рассчитаем ошибку аппроксимации по формуле:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 Находим коэффициент доверия </t>
+  </si>
+  <si>
+    <t>Число степеней свободы:</t>
+  </si>
+  <si>
+    <t>Уровень значимости:</t>
+  </si>
+  <si>
+    <r>
+      <t>ⱱ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= n - 1</t>
+    </r>
+  </si>
+  <si>
+    <t>α = 0,05</t>
+  </si>
+  <si>
+    <r>
+      <t>ⱱ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= 11</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">По таблице t-критерий стьюдента будет равен </t>
+  </si>
+  <si>
+    <t>Это же значение мы можем найти с помощью функции Excel</t>
+  </si>
+  <si>
+    <t>=СТЬЮДЕНТ.ОБР.2Х(вероятность; степень_свободы)</t>
+  </si>
+  <si>
+    <t>Нижняя граница интервального значения</t>
+  </si>
+  <si>
+    <t>Верхняя граница интервального значения</t>
   </si>
 </sst>
 </file>
@@ -773,14 +812,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,6 +867,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -988,32 +1027,6 @@
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -1038,45 +1051,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1084,63 +1145,38 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1149,22 +1185,25 @@
     <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 5" xfId="1" xr:uid="{A7F3D7AE-FABF-4730-9417-6C7D9E323B94}"/>
+    <cellStyle name="Обычный 5 2" xfId="1" xr:uid="{1FAD693A-E875-4CA5-9D33-A9523D8BFA29}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1321,6 +1360,53 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3621505978340458E-3"/>
+                  <c:y val="0.14450047190520487"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Решение!$B$6:$B$17</c:f>
@@ -1384,28 +1470,28 @@
                   <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1800</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1980</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1260</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1340</c:v>
+                  <c:v>1590</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1240</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1800</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2600</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,7 +1499,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5391-47B5-B68E-B2ED2BA70561}"/>
+              <c16:uniqueId val="{00000002-F0A1-4F89-BB62-E549AFB5DCD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2150,14 +2236,14 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>78105</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:rowOff>100964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0E2B50-2F1B-4474-8730-6DAA6EBEA231}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66BC8FF-EA72-4C07-9475-BC9FC4E35BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,8 +2266,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="634365" y="8054340"/>
-          <a:ext cx="2625090" cy="638175"/>
+          <a:off x="653415" y="7964805"/>
+          <a:ext cx="2701290" cy="632459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2218,7 +2304,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF41CAA-106E-4387-BCBE-F651572FB167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBDC63A-35BB-45EB-A680-A07C3D89B97D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2337,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57757E4E-5A76-47D8-A217-6851FB0E1A3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04834EB3-411B-432D-8EA4-31EFAFDBBE12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5130165" y="14220825"/>
+          <a:off x="5349240" y="14173200"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2311,7 +2397,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963A4AB3-A696-4FB3-A08A-E45F02BE8D02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E43CC7-70CB-4626-8F91-312C63BD82A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,8 +2420,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="563880" y="20857846"/>
-          <a:ext cx="919577" cy="369570"/>
+          <a:off x="563880" y="20871181"/>
+          <a:ext cx="959582" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2372,7 +2458,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5D92E2-FCAE-4619-9BDF-7867FF421300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412FAEDC-3D2B-4DAB-9379-55F411A58A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,8 +2481,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="643890" y="22772370"/>
-          <a:ext cx="1120140" cy="510721"/>
+          <a:off x="662940" y="22745700"/>
+          <a:ext cx="1141095" cy="505006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2433,7 +2519,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C5CF67-CB80-41D1-A95D-D1C1D805D174}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCBFF8E-B16D-47AB-8435-F65CD9CCD60C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,8 +2527,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="621030" y="17085945"/>
-          <a:ext cx="5524499" cy="1468755"/>
+          <a:off x="640080" y="17000220"/>
+          <a:ext cx="5695949" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2494,11 +2580,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1200"/>
-            <a:t>т (12,12 &gt; 4,96).</a:t>
+            <a:t>т (45,58 &gt; 4,96).</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
-            <a:t> Следовательно, наша нулевая гипотеза о том, что мы можем интерполировать наше значение на прямой линии - оно адекватно. С прямой можно работать </a:t>
+            <a:t> Следовательно, наша нулевая гипотеза о том, что мы можем интерполировать наши значения на прямой линии - оно адекватно. С прямой можно работать </a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1200"/>
         </a:p>
@@ -2524,7 +2610,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A53B6BA-92E4-4826-BA20-A36FB9EDF867}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D15D9D-B5E2-40C1-A97D-6BF023E31600}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,8 +2618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600075" y="27012899"/>
-          <a:ext cx="5467350" cy="973456"/>
+          <a:off x="619125" y="26854784"/>
+          <a:ext cx="5705475" cy="965836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2578,7 +2664,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1200"/>
-            <a:t>метал чайник" в январе 2024г будет составлять в диапазоне от 1449 шт. до 3023 шт. с вероятностью 95%</a:t>
+            <a:t>метал чайник" в январе 2024г будет составлять в диапазоне от 1889 шт. до 2798 шт. с вероятностью 95%</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2589,9 +2675,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2605,7 +2691,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2617,7 +2703,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2629,7 +2715,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2664,23 +2750,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2716,26 +2785,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2884,49 +2936,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47731C9-60C1-4509-8FAE-E4C7D71E3D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606971C8-8384-4A10-AB40-38F38AF368BA}">
   <dimension ref="B1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O109" sqref="O109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
-    <col min="4" max="10" width="8.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="2" customWidth="1"/>
+    <col min="4" max="10" width="8.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="2" customWidth="1"/>
     <col min="13" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="2"/>
+    <col min="17" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2937,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2948,144 +3000,153 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>1140</v>
       </c>
-      <c r="E7" s="6" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="5">
         <v>1260</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5">
         <v>1140</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5">
-        <v>883.64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="5">
+        <v>1680</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5">
-        <v>1980</v>
-      </c>
-      <c r="E11" s="7" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5">
-        <v>104.06</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
+        <v>827.88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5">
-        <v>1340</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="5">
+        <v>116.61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="5">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
         <v>2200</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -3113,7 +3174,7 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -3141,7 +3202,7 @@
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3170,7 +3231,7 @@
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C43" s="8"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3198,7 +3259,7 @@
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C44" s="8"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -3226,12 +3287,12 @@
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B45" s="23">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B45" s="11">
         <v>12</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3259,12 +3320,12 @@
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B46" s="24">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B46" s="13">
         <v>2</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -3291,13 +3352,13 @@
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B47" s="26">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B47" s="14">
         <f>AVERAGE(C6:C17)</f>
-        <v>1560</v>
+        <v>1585.8333333333333</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -3324,9 +3385,9 @@
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
-        <v>30</v>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B48" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C48" s="9"/>
       <c r="F48" s="9"/>
@@ -3354,9 +3415,9 @@
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:31" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B49" s="11" t="s">
-        <v>31</v>
+    <row r="49" spans="2:31" ht="18" x14ac:dyDescent="0.4">
+      <c r="B49" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C49" s="9"/>
       <c r="E49" s="9"/>
@@ -3385,7 +3446,7 @@
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.3">
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3410,9 +3471,9 @@
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -3435,7 +3496,7 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
     </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -3458,22 +3519,22 @@
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
     </row>
-    <row r="53" spans="2:31" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B53" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40" t="s">
+    <row r="53" spans="2:31" ht="18.600000000000001" x14ac:dyDescent="0.4">
+      <c r="B53" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="40"/>
+      <c r="C53" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="45"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3498,25 +3559,25 @@
       <c r="AD53" s="9"/>
       <c r="AE53" s="9"/>
     </row>
-    <row r="54" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="28">
+    <row r="54" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="17">
         <v>1</v>
       </c>
-      <c r="C54" s="37">
-        <f t="shared" ref="C54:C65" si="0">$F$11*$B54+$F$10</f>
-        <v>987.7</v>
-      </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37">
+      <c r="C54" s="46">
+        <f t="shared" ref="C54:C65" si="0">$F$13*$B54+$F$12</f>
+        <v>944.49</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46">
         <f t="shared" ref="E54:E65" si="1">($C54-$C6)^2</f>
-        <v>767.29000000000246</v>
-      </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37">
+        <v>240.56009999999972</v>
+      </c>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46">
         <f>($C54-$B$47)^2</f>
-        <v>327527.28999999992</v>
-      </c>
-      <c r="H54" s="37"/>
+        <v>411321.27121111099</v>
+      </c>
+      <c r="H54" s="46"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -3541,25 +3602,25 @@
       <c r="AD54" s="9"/>
       <c r="AE54" s="9"/>
     </row>
-    <row r="55" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="15">
+    <row r="55" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="18">
         <v>2</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="40">
         <f t="shared" si="0"/>
-        <v>1091.76</v>
-      </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41">
+        <v>1061.0999999999999</v>
+      </c>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40">
         <f t="shared" si="1"/>
-        <v>2327.097600000001</v>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41">
+        <v>6225.2100000000146</v>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40">
         <f t="shared" ref="G55:G65" si="2">($C55-$B$47)^2</f>
-        <v>219248.69760000001</v>
-      </c>
-      <c r="H55" s="41"/>
+        <v>275345.07111111115</v>
+      </c>
+      <c r="H55" s="40"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -3584,25 +3645,25 @@
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
     </row>
-    <row r="56" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="14">
+    <row r="56" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="19">
         <v>3</v>
       </c>
-      <c r="C56" s="42">
+      <c r="C56" s="41">
         <f t="shared" si="0"/>
-        <v>1195.82</v>
-      </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42">
+        <v>1177.71</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41">
         <f t="shared" si="1"/>
-        <v>4119.0724000000082</v>
-      </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42">
+        <v>6771.6440999999941</v>
+      </c>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41">
         <f t="shared" si="2"/>
-        <v>132627.07240000003</v>
-      </c>
-      <c r="H56" s="42"/>
+        <v>166564.65521111101</v>
+      </c>
+      <c r="H56" s="41"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -3627,25 +3688,25 @@
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
     </row>
-    <row r="57" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="15">
+    <row r="57" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="18">
         <v>4</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="40">
         <f t="shared" si="0"/>
-        <v>1299.8800000000001</v>
-      </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41">
+        <v>1294.32</v>
+      </c>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40">
         <f t="shared" si="1"/>
-        <v>25561.614400000035</v>
-      </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41">
+        <v>23814.662399999979</v>
+      </c>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40">
         <f t="shared" si="2"/>
-        <v>67662.414399999936</v>
-      </c>
-      <c r="H57" s="41"/>
+        <v>84980.023511111111</v>
+      </c>
+      <c r="H57" s="40"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -3670,25 +3731,25 @@
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
     </row>
-    <row r="58" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="14">
+    <row r="58" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="19">
         <v>5</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="41">
         <f t="shared" si="0"/>
-        <v>1403.94</v>
-      </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42">
+        <v>1410.9299999999998</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41">
         <f t="shared" si="1"/>
-        <v>156863.52359999996</v>
-      </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="43">
+        <v>12305.464899999964</v>
+      </c>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42">
         <f t="shared" si="2"/>
-        <v>24354.723599999983</v>
-      </c>
-      <c r="H58" s="44"/>
+        <v>30591.176011111143</v>
+      </c>
+      <c r="H58" s="43"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -3713,25 +3774,25 @@
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
     </row>
-    <row r="59" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="15">
+    <row r="59" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="18">
         <v>6</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="40">
         <f t="shared" si="0"/>
-        <v>1508</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41">
+        <v>1527.54</v>
+      </c>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40">
         <f t="shared" si="1"/>
-        <v>222784</v>
-      </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41">
+        <v>23244.05160000001</v>
+      </c>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40">
         <f t="shared" si="2"/>
-        <v>2704</v>
-      </c>
-      <c r="H59" s="41"/>
+        <v>3398.1127111111064</v>
+      </c>
+      <c r="H59" s="40"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -3756,25 +3817,25 @@
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
     </row>
-    <row r="60" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="14">
+    <row r="60" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="19">
         <v>7</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="41">
         <f t="shared" si="0"/>
-        <v>1612.06</v>
-      </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42">
+        <v>1644.15</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41">
         <f t="shared" si="1"/>
-        <v>123946.24359999996</v>
-      </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42">
+        <v>65459.222499999953</v>
+      </c>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41">
         <f t="shared" si="2"/>
-        <v>2710.2435999999943</v>
-      </c>
-      <c r="H60" s="42"/>
+        <v>3400.8336111111307</v>
+      </c>
+      <c r="H60" s="41"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -3799,25 +3860,25 @@
       <c r="AD60" s="9"/>
       <c r="AE60" s="9"/>
     </row>
-    <row r="61" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="15">
+    <row r="61" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="18">
         <v>8</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="40">
         <f t="shared" si="0"/>
-        <v>1716.12</v>
-      </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41">
+        <v>1760.76</v>
+      </c>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40">
         <f t="shared" si="1"/>
-        <v>141466.25439999992</v>
-      </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41">
+        <v>29158.977599999998</v>
+      </c>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40">
         <f t="shared" si="2"/>
-        <v>24373.454399999966</v>
-      </c>
-      <c r="H61" s="41"/>
+        <v>30599.338711111133</v>
+      </c>
+      <c r="H61" s="40"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -3842,25 +3903,25 @@
       <c r="AD61" s="9"/>
       <c r="AE61" s="9"/>
     </row>
-    <row r="62" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="14">
+    <row r="62" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="19">
         <v>9</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="41">
         <f t="shared" si="0"/>
-        <v>1820.1799999999998</v>
-      </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42">
+        <v>1877.37</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41">
         <f t="shared" si="1"/>
-        <v>336608.83239999978</v>
-      </c>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42">
+        <v>218434.71689999991</v>
+      </c>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41">
         <f t="shared" si="2"/>
-        <v>67693.632399999915</v>
-      </c>
-      <c r="H62" s="42"/>
+        <v>84993.628011111097</v>
+      </c>
+      <c r="H62" s="41"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -3885,25 +3946,25 @@
       <c r="AD62" s="9"/>
       <c r="AE62" s="9"/>
     </row>
-    <row r="63" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="15">
+    <row r="63" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="18">
         <v>10</v>
       </c>
-      <c r="C63" s="41">
+      <c r="C63" s="40">
         <f t="shared" si="0"/>
-        <v>1924.2399999999998</v>
-      </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41">
+        <v>1993.98</v>
+      </c>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40">
         <f t="shared" si="1"/>
-        <v>15435.577599999946</v>
-      </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41">
+        <v>3138.2403999999979</v>
+      </c>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40">
         <f t="shared" si="2"/>
-        <v>132670.77759999983</v>
-      </c>
-      <c r="H63" s="41"/>
+        <v>166583.7015111112</v>
+      </c>
+      <c r="H63" s="40"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -3928,25 +3989,25 @@
       <c r="AD63" s="9"/>
       <c r="AE63" s="9"/>
     </row>
-    <row r="64" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="14">
+    <row r="64" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="19">
         <v>11</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="41">
         <f t="shared" si="0"/>
-        <v>2028.3000000000002</v>
-      </c>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42">
+        <v>2110.59</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41">
         <f t="shared" si="1"/>
-        <v>29480.889999999938</v>
-      </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42">
+        <v>7994.148099999974</v>
+      </c>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41">
         <f t="shared" si="2"/>
-        <v>219304.89000000016</v>
-      </c>
-      <c r="H64" s="42"/>
+        <v>275369.55921111134</v>
+      </c>
+      <c r="H64" s="41"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -3971,25 +4032,25 @@
       <c r="AD64" s="9"/>
       <c r="AE64" s="9"/>
     </row>
-    <row r="65" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="32">
+    <row r="65" spans="2:31" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="20">
         <v>12</v>
       </c>
-      <c r="C65" s="45">
+      <c r="C65" s="38">
         <f t="shared" si="0"/>
-        <v>2132.36</v>
-      </c>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45">
+        <v>2227.1999999999998</v>
+      </c>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38">
         <f t="shared" si="1"/>
-        <v>218687.16959999988</v>
-      </c>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45">
+        <v>29859.840000000062</v>
+      </c>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38">
         <f t="shared" si="2"/>
-        <v>327595.96960000013</v>
-      </c>
-      <c r="H65" s="45"/>
+        <v>411351.20111111098</v>
+      </c>
+      <c r="H65" s="38"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4014,22 +4075,22 @@
       <c r="AD65" s="9"/>
       <c r="AE65" s="9"/>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B66" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="46">
+    <row r="66" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B66" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="39">
         <f>SUM(E54:E65)</f>
-        <v>1278047.5655999994</v>
-      </c>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46">
+        <v>426646.73859999992</v>
+      </c>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39">
         <f>SUM(G54:G65)</f>
-        <v>1548473.1655999999</v>
-      </c>
-      <c r="H66" s="46"/>
+        <v>1944498.5719333333</v>
+      </c>
+      <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -4054,7 +4115,7 @@
       <c r="AD66" s="9"/>
       <c r="AE66" s="9"/>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -4084,12 +4145,12 @@
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B68" s="27">
+    <row r="68" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B68" s="23">
         <f>((B45-B46)*G66)/((B46-1)*E66)</f>
-        <v>12.115927507541905</v>
-      </c>
-      <c r="C68" s="16"/>
+        <v>45.576313985523889</v>
+      </c>
+      <c r="C68" s="24"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -4117,7 +4178,7 @@
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.3">
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -4145,9 +4206,9 @@
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
     </row>
-    <row r="70" spans="2:31" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:31" ht="18" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -4177,7 +4238,7 @@
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -4200,19 +4261,19 @@
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
     </row>
-    <row r="72" spans="2:31" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B72" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="25">
+    <row r="72" spans="2:31" ht="18" x14ac:dyDescent="0.4">
+      <c r="B72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="26">
         <f>$B$46-1</f>
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4236,19 +4297,19 @@
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
     </row>
-    <row r="73" spans="2:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="23">
+    <row r="73" spans="2:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="11">
         <f>$B$45-$B$46</f>
         <v>10</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -4273,7 +4334,7 @@
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
     </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -4300,9 +4361,9 @@
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -4330,11 +4391,11 @@
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
     </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B76" s="33">
+    <row r="76" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B76" s="27">
         <v>4.96</v>
       </c>
-      <c r="C76" s="18"/>
+      <c r="C76" s="28"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -4361,7 +4422,7 @@
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -4388,9 +4449,9 @@
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
     </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -4418,7 +4479,7 @@
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -4445,9 +4506,9 @@
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B80" s="19" t="s">
-        <v>47</v>
+    <row r="80" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="C80" s="9"/>
       <c r="E80" s="9"/>
@@ -4476,12 +4537,12 @@
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B81" s="33">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B81" s="27">
         <f>_xlfn.F.INV(0.95,$D$72,$D$73)</f>
         <v>4.9646027437307128</v>
       </c>
-      <c r="C81" s="18"/>
+      <c r="C81" s="28"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -4509,7 +4570,7 @@
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -4539,8 +4600,8 @@
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
     </row>
-    <row r="83" spans="2:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B83" s="20"/>
+    <row r="83" spans="2:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="B83" s="30"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -4568,31 +4629,31 @@
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B84" s="21"/>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B84" s="31"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B85" s="21"/>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B85" s="31"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B86" s="22"/>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B86" s="32"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -4601,7 +4662,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -4610,7 +4671,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -4619,7 +4680,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -4628,7 +4689,7 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -4637,220 +4698,182 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B92" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="B92" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+    </row>
+    <row r="93" spans="2:29" ht="18" x14ac:dyDescent="0.4">
+      <c r="B93" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="2:29" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:29" ht="18" x14ac:dyDescent="0.4">
       <c r="B94" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C94" s="9"/>
-      <c r="E94" s="9"/>
+      <c r="E94" s="9">
+        <f>F13*13+F12</f>
+        <v>2343.81</v>
+      </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="2:29" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B95" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="E95" s="9">
-        <v>2236.42</v>
-      </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B96" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="C96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="34"/>
-      <c r="C97" s="11"/>
-    </row>
-    <row r="99" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B99" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="15"/>
+    </row>
+    <row r="99" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B99" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="18" x14ac:dyDescent="0.4">
       <c r="B105" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" ht="18" x14ac:dyDescent="0.4">
       <c r="B106" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" ht="18.75" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" ht="18" x14ac:dyDescent="0.4">
       <c r="B107" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="34">
         <f>SQRT((E66/($B$45-$B$46)))</f>
-        <v>357.49791126662535</v>
-      </c>
-      <c r="C114" s="13"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+        <v>206.55428792450667</v>
+      </c>
+      <c r="C114" s="35"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B119" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" s="13"/>
-      <c r="F119" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G119" s="13"/>
-    </row>
-    <row r="120" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B120" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C120" s="13"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="B119" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="35"/>
+      <c r="F119" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G119" s="35"/>
+    </row>
+    <row r="120" spans="2:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="B120" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" s="35"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="36">
         <v>2.2010000000000001</v>
       </c>
-      <c r="C123" s="13"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="35"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G128" s="2">
-        <f>$E$95-$B$123*$B$114</f>
-        <v>1449.5670973021577</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+        <f>$E$94-$B$123*$B$114</f>
+        <v>1889.1840122781607</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G129" s="2">
-        <f>$E$95+$B$123*$B$114</f>
-        <v>3023.2729026978423</v>
+        <f>$E$94+$B$123*$B$114</f>
+        <v>2798.435987721839</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B92:J92"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="G54:H54"/>
@@ -4859,6 +4882,43 @@
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B92:J92"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
